--- a/data/pca/factorExposure/factorExposure_2015-08-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.018903324027118</v>
+        <v>0.01384856199584487</v>
       </c>
       <c r="C2">
-        <v>-0.03047694775530482</v>
+        <v>0.04661028401593417</v>
       </c>
       <c r="D2">
-        <v>-0.1326498597265028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1413534800916779</v>
+      </c>
+      <c r="E2">
+        <v>0.00262001406492968</v>
+      </c>
+      <c r="F2">
+        <v>0.002349258989554489</v>
+      </c>
+      <c r="G2">
+        <v>0.1118006586506012</v>
+      </c>
+      <c r="H2">
+        <v>0.03911438231236951</v>
+      </c>
+      <c r="I2">
+        <v>0.06821706994262504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02664311056166447</v>
+        <v>-0.02362305086660639</v>
       </c>
       <c r="C3">
-        <v>-0.0356487266819365</v>
+        <v>0.01690331275308877</v>
       </c>
       <c r="D3">
-        <v>-0.01494700767134467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0224708373309918</v>
+      </c>
+      <c r="E3">
+        <v>0.04513719318377712</v>
+      </c>
+      <c r="F3">
+        <v>0.02269309052397266</v>
+      </c>
+      <c r="G3">
+        <v>0.1034069561030735</v>
+      </c>
+      <c r="H3">
+        <v>0.00687376702393237</v>
+      </c>
+      <c r="I3">
+        <v>-0.07472396968582774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03314367209256509</v>
+        <v>0.0233205305491695</v>
       </c>
       <c r="C4">
-        <v>-0.07046426592805198</v>
+        <v>0.08880713683745464</v>
       </c>
       <c r="D4">
-        <v>-0.1387680737806869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1513618062768482</v>
+      </c>
+      <c r="E4">
+        <v>0.02145091246914946</v>
+      </c>
+      <c r="F4">
+        <v>0.08412822993399434</v>
+      </c>
+      <c r="G4">
+        <v>-0.002858333543846302</v>
+      </c>
+      <c r="H4">
+        <v>0.04421359069995519</v>
+      </c>
+      <c r="I4">
+        <v>0.009654980709965465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02374810878268807</v>
+        <v>0.02416613289682323</v>
       </c>
       <c r="C6">
-        <v>-0.01731041858189316</v>
+        <v>0.03082687889541465</v>
       </c>
       <c r="D6">
-        <v>-0.1498210415085197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.129548811640869</v>
+      </c>
+      <c r="E6">
+        <v>-0.0356041022003202</v>
+      </c>
+      <c r="F6">
+        <v>0.0524866569603682</v>
+      </c>
+      <c r="G6">
+        <v>0.04488205756031163</v>
+      </c>
+      <c r="H6">
+        <v>0.02535177873058324</v>
+      </c>
+      <c r="I6">
+        <v>-0.0228736120483273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.006831971175775818</v>
+        <v>0.004886364835345847</v>
       </c>
       <c r="C7">
-        <v>-0.02684156536656054</v>
+        <v>0.03426388313946621</v>
       </c>
       <c r="D7">
-        <v>-0.119558653630626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09976861249352209</v>
+      </c>
+      <c r="E7">
+        <v>-0.04264626023111322</v>
+      </c>
+      <c r="F7">
+        <v>0.01190969271030409</v>
+      </c>
+      <c r="G7">
+        <v>0.03721898025879828</v>
+      </c>
+      <c r="H7">
+        <v>0.05982120954155866</v>
+      </c>
+      <c r="I7">
+        <v>-0.04708427532597016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001865772036526511</v>
+        <v>-0.004654048456581044</v>
       </c>
       <c r="C8">
-        <v>-0.03282274913276992</v>
+        <v>0.03900325580487774</v>
       </c>
       <c r="D8">
-        <v>-0.08390640746319335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0830145266194634</v>
+      </c>
+      <c r="E8">
+        <v>-0.01254754852149838</v>
+      </c>
+      <c r="F8">
+        <v>0.04903032999334428</v>
+      </c>
+      <c r="G8">
+        <v>0.09262636433772195</v>
+      </c>
+      <c r="H8">
+        <v>-0.0112470399065846</v>
+      </c>
+      <c r="I8">
+        <v>-0.03461236741960313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02822351431262482</v>
+        <v>0.01799509822332874</v>
       </c>
       <c r="C9">
-        <v>-0.06641719376910922</v>
+        <v>0.07954727669927081</v>
       </c>
       <c r="D9">
-        <v>-0.1314981473708921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1272229247131339</v>
+      </c>
+      <c r="E9">
+        <v>0.0102757152851311</v>
+      </c>
+      <c r="F9">
+        <v>0.04916567263556797</v>
+      </c>
+      <c r="G9">
+        <v>-0.003849173027442951</v>
+      </c>
+      <c r="H9">
+        <v>0.04891126153046161</v>
+      </c>
+      <c r="I9">
+        <v>0.0008348677655199594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1601076396038443</v>
+        <v>0.2134842246970813</v>
       </c>
       <c r="C10">
-        <v>0.1632568944979129</v>
+        <v>-0.1215800370475243</v>
       </c>
       <c r="D10">
-        <v>-0.02154262566439511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01185609041170279</v>
+      </c>
+      <c r="E10">
+        <v>0.02813335770600186</v>
+      </c>
+      <c r="F10">
+        <v>0.05032015533726641</v>
+      </c>
+      <c r="G10">
+        <v>-0.00683299414120717</v>
+      </c>
+      <c r="H10">
+        <v>-0.05901160404607637</v>
+      </c>
+      <c r="I10">
+        <v>-0.1191105900584165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02105326648446729</v>
+        <v>0.01279479249573336</v>
       </c>
       <c r="C11">
-        <v>-0.04530850508326692</v>
+        <v>0.05346189839469546</v>
       </c>
       <c r="D11">
-        <v>-0.05583776911796095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04983647111586485</v>
+      </c>
+      <c r="E11">
+        <v>-0.0201358566103213</v>
+      </c>
+      <c r="F11">
+        <v>-0.01343568749772848</v>
+      </c>
+      <c r="G11">
+        <v>0.01103066537746348</v>
+      </c>
+      <c r="H11">
+        <v>0.04451592134709629</v>
+      </c>
+      <c r="I11">
+        <v>0.005895833277765538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02278729171761548</v>
+        <v>0.01369829101878243</v>
       </c>
       <c r="C12">
-        <v>-0.04307919786842314</v>
+        <v>0.04918389200618662</v>
       </c>
       <c r="D12">
-        <v>-0.06832080633104051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05204060481969219</v>
+      </c>
+      <c r="E12">
+        <v>-0.01594014646483327</v>
+      </c>
+      <c r="F12">
+        <v>-0.01514159392920848</v>
+      </c>
+      <c r="G12">
+        <v>0.007977177770333233</v>
+      </c>
+      <c r="H12">
+        <v>0.07286482897911875</v>
+      </c>
+      <c r="I12">
+        <v>-0.003655950611769558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0001485254079520323</v>
+        <v>0.002453601021875398</v>
       </c>
       <c r="C13">
-        <v>-0.0287479195442771</v>
+        <v>0.04188504960903121</v>
       </c>
       <c r="D13">
-        <v>-0.1522137387996139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1576843131830256</v>
+      </c>
+      <c r="E13">
+        <v>-0.03958395956718031</v>
+      </c>
+      <c r="F13">
+        <v>0.04273736192055404</v>
+      </c>
+      <c r="G13">
+        <v>0.05693414653267476</v>
+      </c>
+      <c r="H13">
+        <v>0.05360366494407292</v>
+      </c>
+      <c r="I13">
+        <v>-0.0595002876438183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003417329944038333</v>
+        <v>-0.0004314032307578772</v>
       </c>
       <c r="C14">
-        <v>-0.02294135578474135</v>
+        <v>0.027820966875458</v>
       </c>
       <c r="D14">
-        <v>-0.1081078214812113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1055422596380221</v>
+      </c>
+      <c r="E14">
+        <v>-0.01935455492540335</v>
+      </c>
+      <c r="F14">
+        <v>0.01879876303385443</v>
+      </c>
+      <c r="G14">
+        <v>0.06407581569851541</v>
+      </c>
+      <c r="H14">
+        <v>0.09858929257443777</v>
+      </c>
+      <c r="I14">
+        <v>-0.009371975500465261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.003116832384128897</v>
+        <v>-0.0002915727052464435</v>
       </c>
       <c r="C15">
-        <v>-0.01128585723192439</v>
+        <v>0.01650918221538993</v>
       </c>
       <c r="D15">
-        <v>-0.02403480372019513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04850820940751478</v>
+      </c>
+      <c r="E15">
+        <v>-0.004449972305130588</v>
+      </c>
+      <c r="F15">
+        <v>0.002367168693034781</v>
+      </c>
+      <c r="G15">
+        <v>0.02253542900801928</v>
+      </c>
+      <c r="H15">
+        <v>0.01137126908621208</v>
+      </c>
+      <c r="I15">
+        <v>0.02077776293175912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01934278780390645</v>
+        <v>0.01278082543897836</v>
       </c>
       <c r="C16">
-        <v>-0.04085940592679575</v>
+        <v>0.04749306186814353</v>
       </c>
       <c r="D16">
-        <v>-0.06387645438617441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05063477337606402</v>
+      </c>
+      <c r="E16">
+        <v>-0.01988154958929494</v>
+      </c>
+      <c r="F16">
+        <v>-0.00688673975933496</v>
+      </c>
+      <c r="G16">
+        <v>0.004150799156151358</v>
+      </c>
+      <c r="H16">
+        <v>0.05216814240053106</v>
+      </c>
+      <c r="I16">
+        <v>0.004180468301528391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.001106967478199122</v>
+        <v>-0.003213082773429753</v>
       </c>
       <c r="C19">
-        <v>-0.02548766528299558</v>
+        <v>0.02036231784724682</v>
       </c>
       <c r="D19">
-        <v>-0.1404828068987521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09522072723964231</v>
+      </c>
+      <c r="E19">
+        <v>0.02139446671563604</v>
+      </c>
+      <c r="F19">
+        <v>0.009538486844671248</v>
+      </c>
+      <c r="G19">
+        <v>0.03772081681110726</v>
+      </c>
+      <c r="H19">
+        <v>0.06459334155112754</v>
+      </c>
+      <c r="I19">
+        <v>-0.03247202426072939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002329144208259301</v>
+        <v>0.003244764601915125</v>
       </c>
       <c r="C20">
-        <v>-0.0313041608115595</v>
+        <v>0.03853987230613958</v>
       </c>
       <c r="D20">
-        <v>-0.09370398581958402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1025808009437765</v>
+      </c>
+      <c r="E20">
+        <v>0.003488539643663557</v>
+      </c>
+      <c r="F20">
+        <v>0.03183326176575695</v>
+      </c>
+      <c r="G20">
+        <v>0.03963282633176113</v>
+      </c>
+      <c r="H20">
+        <v>0.05739931911289406</v>
+      </c>
+      <c r="I20">
+        <v>-0.02503685876915828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0008290940209854444</v>
+        <v>-0.001245032778606368</v>
       </c>
       <c r="C21">
-        <v>-0.03660830555732875</v>
+        <v>0.04307059190954532</v>
       </c>
       <c r="D21">
-        <v>-0.1723808622842447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1487703081252344</v>
+      </c>
+      <c r="E21">
+        <v>0.01537224122947189</v>
+      </c>
+      <c r="F21">
+        <v>0.06240415656683065</v>
+      </c>
+      <c r="G21">
+        <v>0.07316196456274567</v>
+      </c>
+      <c r="H21">
+        <v>0.1447155271268972</v>
+      </c>
+      <c r="I21">
+        <v>-0.07069952625863206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003520290874173522</v>
+        <v>-0.004222376635743655</v>
       </c>
       <c r="C22">
-        <v>-0.05559607370218032</v>
+        <v>0.06799265190154122</v>
       </c>
       <c r="D22">
-        <v>-0.1908228763772965</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2373431109852666</v>
+      </c>
+      <c r="E22">
+        <v>-0.0473577097675871</v>
+      </c>
+      <c r="F22">
+        <v>0.0279838508466904</v>
+      </c>
+      <c r="G22">
+        <v>0.1497640144193877</v>
+      </c>
+      <c r="H22">
+        <v>-0.4740623783788384</v>
+      </c>
+      <c r="I22">
+        <v>0.2083944152356784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003336745675495802</v>
+        <v>-0.00380258274800403</v>
       </c>
       <c r="C23">
-        <v>-0.05602402772113288</v>
+        <v>0.06889620956271229</v>
       </c>
       <c r="D23">
-        <v>-0.1903751500310105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2380886509004125</v>
+      </c>
+      <c r="E23">
+        <v>-0.04449399612756694</v>
+      </c>
+      <c r="F23">
+        <v>0.02695354129458278</v>
+      </c>
+      <c r="G23">
+        <v>0.148349330165238</v>
+      </c>
+      <c r="H23">
+        <v>-0.4740640928610958</v>
+      </c>
+      <c r="I23">
+        <v>0.2099652576944486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02569085779467647</v>
+        <v>0.01417396727390014</v>
       </c>
       <c r="C24">
-        <v>-0.05927188622477903</v>
+        <v>0.0643044112402853</v>
       </c>
       <c r="D24">
-        <v>-0.07428000781235684</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05928895094075862</v>
+      </c>
+      <c r="E24">
+        <v>-0.02075426673430223</v>
+      </c>
+      <c r="F24">
+        <v>-0.004814827648892572</v>
+      </c>
+      <c r="G24">
+        <v>0.01796670559926672</v>
+      </c>
+      <c r="H24">
+        <v>0.07584693616822188</v>
+      </c>
+      <c r="I24">
+        <v>0.004772001878028719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02907205333905844</v>
+        <v>0.0179906448223123</v>
       </c>
       <c r="C25">
-        <v>-0.05129057063095346</v>
+        <v>0.06031822045712418</v>
       </c>
       <c r="D25">
-        <v>-0.06959574448400671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05859616446940755</v>
+      </c>
+      <c r="E25">
+        <v>-0.009038880141700687</v>
+      </c>
+      <c r="F25">
+        <v>-0.00830526041817054</v>
+      </c>
+      <c r="G25">
+        <v>0.00493691023768175</v>
+      </c>
+      <c r="H25">
+        <v>0.04695522557216436</v>
+      </c>
+      <c r="I25">
+        <v>0.0005015266251197958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.004493386123118189</v>
+        <v>0.005399751142248701</v>
       </c>
       <c r="C26">
-        <v>-0.01546018651309697</v>
+        <v>0.02287729142662953</v>
       </c>
       <c r="D26">
-        <v>-0.07688900705804953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07267704656050283</v>
+      </c>
+      <c r="E26">
+        <v>-0.01843304353278005</v>
+      </c>
+      <c r="F26">
+        <v>0.0244886490523939</v>
+      </c>
+      <c r="G26">
+        <v>0.03554527861495776</v>
+      </c>
+      <c r="H26">
+        <v>0.06607503159937173</v>
+      </c>
+      <c r="I26">
+        <v>-0.03951701580006968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2444720294841852</v>
+        <v>0.3092296218106569</v>
       </c>
       <c r="C28">
-        <v>0.206845304570902</v>
+        <v>-0.1404104328970797</v>
       </c>
       <c r="D28">
-        <v>-0.02027817345271215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005543632665565656</v>
+      </c>
+      <c r="E28">
+        <v>0.0479592607062195</v>
+      </c>
+      <c r="F28">
+        <v>0.03626712485339938</v>
+      </c>
+      <c r="G28">
+        <v>-0.02593423865079243</v>
+      </c>
+      <c r="H28">
+        <v>-0.02536895218285411</v>
+      </c>
+      <c r="I28">
+        <v>-0.08350147598068004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.003121765097540004</v>
+        <v>-0.0001585621035457168</v>
       </c>
       <c r="C29">
-        <v>-0.02123651023736132</v>
+        <v>0.02753581465547564</v>
       </c>
       <c r="D29">
-        <v>-0.1003349451870042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1021839849924413</v>
+      </c>
+      <c r="E29">
+        <v>-0.03296144598338598</v>
+      </c>
+      <c r="F29">
+        <v>0.02918580593448866</v>
+      </c>
+      <c r="G29">
+        <v>0.0507599455146754</v>
+      </c>
+      <c r="H29">
+        <v>0.09673037913134754</v>
+      </c>
+      <c r="I29">
+        <v>-0.01793474883123096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01402456560147848</v>
+        <v>0.01386203696155514</v>
       </c>
       <c r="C30">
-        <v>-0.06340404241984625</v>
+        <v>0.07894167679859349</v>
       </c>
       <c r="D30">
-        <v>-0.1700323872813186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1714934311812349</v>
+      </c>
+      <c r="E30">
+        <v>-0.03900541691427406</v>
+      </c>
+      <c r="F30">
+        <v>0.03630210086810483</v>
+      </c>
+      <c r="G30">
+        <v>0.03763095776744998</v>
+      </c>
+      <c r="H30">
+        <v>0.03719215010114454</v>
+      </c>
+      <c r="I30">
+        <v>0.04640295976740845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03827857034155534</v>
+        <v>0.01686093893157239</v>
       </c>
       <c r="C31">
-        <v>-0.08440731376699452</v>
+        <v>0.08806759952670537</v>
       </c>
       <c r="D31">
-        <v>-0.07917917896566816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04769484228185123</v>
+      </c>
+      <c r="E31">
+        <v>-0.007584102980478271</v>
+      </c>
+      <c r="F31">
+        <v>0.01907667994297263</v>
+      </c>
+      <c r="G31">
+        <v>0.02420401360803163</v>
+      </c>
+      <c r="H31">
+        <v>0.03963104449084075</v>
+      </c>
+      <c r="I31">
+        <v>-0.05349795924885919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02080736298054899</v>
+        <v>0.01666477278718894</v>
       </c>
       <c r="C32">
-        <v>-0.03212991161596845</v>
+        <v>0.03808457277634691</v>
       </c>
       <c r="D32">
-        <v>-0.1102659367122407</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1169914250194384</v>
+      </c>
+      <c r="E32">
+        <v>-0.002937870372779398</v>
+      </c>
+      <c r="F32">
+        <v>0.04362088820352766</v>
+      </c>
+      <c r="G32">
+        <v>0.02492581890709558</v>
+      </c>
+      <c r="H32">
+        <v>0.01645706804758608</v>
+      </c>
+      <c r="I32">
+        <v>-0.07385112576822976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01254961064993494</v>
+        <v>0.009820810757803966</v>
       </c>
       <c r="C33">
-        <v>-0.04272490034136242</v>
+        <v>0.05349065329018779</v>
       </c>
       <c r="D33">
-        <v>-0.152379580563271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1335653712362714</v>
+      </c>
+      <c r="E33">
+        <v>-0.01315129543817757</v>
+      </c>
+      <c r="F33">
+        <v>0.02367109517689381</v>
+      </c>
+      <c r="G33">
+        <v>0.02826573205284255</v>
+      </c>
+      <c r="H33">
+        <v>0.05646511384321303</v>
+      </c>
+      <c r="I33">
+        <v>-0.008389432886985862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02502455396814335</v>
+        <v>0.01215193791856218</v>
       </c>
       <c r="C34">
-        <v>-0.06000189627025108</v>
+        <v>0.06345821561717015</v>
       </c>
       <c r="D34">
-        <v>-0.05522665036229197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03710903624140551</v>
+      </c>
+      <c r="E34">
+        <v>-0.02956131691613667</v>
+      </c>
+      <c r="F34">
+        <v>-0.03599368527243132</v>
+      </c>
+      <c r="G34">
+        <v>0.01419601442472347</v>
+      </c>
+      <c r="H34">
+        <v>0.05746180233613718</v>
+      </c>
+      <c r="I34">
+        <v>-0.009516296179652087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00139895981613876</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003669125237638082</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01441030728015282</v>
+      </c>
+      <c r="E35">
+        <v>-0.001761769333598251</v>
+      </c>
+      <c r="F35">
+        <v>-0.001383049349536384</v>
+      </c>
+      <c r="G35">
+        <v>0.0007760929899364175</v>
+      </c>
+      <c r="H35">
+        <v>0.007003023936227342</v>
+      </c>
+      <c r="I35">
+        <v>0.003519653508765251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009710638567310446</v>
+        <v>0.01161167263719903</v>
       </c>
       <c r="C36">
-        <v>-0.005773484156603363</v>
+        <v>0.01793586881116273</v>
       </c>
       <c r="D36">
-        <v>-0.09917652199370852</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08868396572043573</v>
+      </c>
+      <c r="E36">
+        <v>-0.0067044263786735</v>
+      </c>
+      <c r="F36">
+        <v>0.03189336868976769</v>
+      </c>
+      <c r="G36">
+        <v>0.02146971430480731</v>
+      </c>
+      <c r="H36">
+        <v>0.05713935377679519</v>
+      </c>
+      <c r="I36">
+        <v>-0.01756455972212599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.009321201216396343</v>
+        <v>0.01668795207691512</v>
       </c>
       <c r="C38">
-        <v>-0.01093680059519057</v>
+        <v>0.01692958839787116</v>
       </c>
       <c r="D38">
-        <v>-0.08710149526017208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08596819821622444</v>
+      </c>
+      <c r="E38">
+        <v>0.01292856204698367</v>
+      </c>
+      <c r="F38">
+        <v>-0.0127956619991665</v>
+      </c>
+      <c r="G38">
+        <v>0.03747711432561193</v>
+      </c>
+      <c r="H38">
+        <v>0.04278918467641721</v>
+      </c>
+      <c r="I38">
+        <v>-0.01115131622819951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02189704872324483</v>
+        <v>0.01181483665540468</v>
       </c>
       <c r="C39">
-        <v>-0.05824035783596319</v>
+        <v>0.07412792974370727</v>
       </c>
       <c r="D39">
-        <v>-0.106246865117468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1026879893809979</v>
+      </c>
+      <c r="E39">
+        <v>-0.04571524451357311</v>
+      </c>
+      <c r="F39">
+        <v>-0.01162550568746273</v>
+      </c>
+      <c r="G39">
+        <v>0.02169664220813701</v>
+      </c>
+      <c r="H39">
+        <v>0.0936757437833568</v>
+      </c>
+      <c r="I39">
+        <v>0.05035531267403588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.009858240031130559</v>
+        <v>0.005318291520055885</v>
       </c>
       <c r="C40">
-        <v>-0.04193181604265744</v>
+        <v>0.04014968287772906</v>
       </c>
       <c r="D40">
-        <v>-0.1162320095547502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1009179716752515</v>
+      </c>
+      <c r="E40">
+        <v>-0.01641573401584261</v>
+      </c>
+      <c r="F40">
+        <v>0.0251656669791598</v>
+      </c>
+      <c r="G40">
+        <v>0.2475490701308083</v>
+      </c>
+      <c r="H40">
+        <v>0.01537585323916776</v>
+      </c>
+      <c r="I40">
+        <v>-0.1364521343472541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01959759458062183</v>
+        <v>0.01851447436269209</v>
       </c>
       <c r="C41">
-        <v>-0.0005267230114098597</v>
+        <v>0.01103635649570336</v>
       </c>
       <c r="D41">
-        <v>-0.07373690791718053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05165483255411924</v>
+      </c>
+      <c r="E41">
+        <v>0.01969492321234465</v>
+      </c>
+      <c r="F41">
+        <v>0.0163247881858355</v>
+      </c>
+      <c r="G41">
+        <v>0.02755574602401422</v>
+      </c>
+      <c r="H41">
+        <v>0.02573038356491446</v>
+      </c>
+      <c r="I41">
+        <v>-0.04498854239385305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01235764095147202</v>
+        <v>0.01054481759083055</v>
       </c>
       <c r="C43">
-        <v>-0.007745664633255401</v>
+        <v>0.01512427021999368</v>
       </c>
       <c r="D43">
-        <v>-0.08942628617357765</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06480318270271411</v>
+      </c>
+      <c r="E43">
+        <v>0.005503140533548617</v>
+      </c>
+      <c r="F43">
+        <v>0.01143380353679496</v>
+      </c>
+      <c r="G43">
+        <v>0.03345824047160999</v>
+      </c>
+      <c r="H43">
+        <v>0.0560524344733807</v>
+      </c>
+      <c r="I43">
+        <v>-0.03995755456970671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0005633662516570528</v>
+        <v>0.002988749464597994</v>
       </c>
       <c r="C44">
-        <v>-0.04025603409108441</v>
+        <v>0.04359515966284604</v>
       </c>
       <c r="D44">
-        <v>-0.09909974319614752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.114152086292296</v>
+      </c>
+      <c r="E44">
+        <v>-0.000719503331945174</v>
+      </c>
+      <c r="F44">
+        <v>0.02609525970159612</v>
+      </c>
+      <c r="G44">
+        <v>0.04192186484535104</v>
+      </c>
+      <c r="H44">
+        <v>0.04374223680219804</v>
+      </c>
+      <c r="I44">
+        <v>0.03129814328330792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.00713346700131282</v>
+        <v>0.0018480585421703</v>
       </c>
       <c r="C46">
-        <v>-0.02827417566349257</v>
+        <v>0.03530789912314523</v>
       </c>
       <c r="D46">
-        <v>-0.1060732241702918</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09076384657449318</v>
+      </c>
+      <c r="E46">
+        <v>-0.01677560690277948</v>
+      </c>
+      <c r="F46">
+        <v>0.02339203818206768</v>
+      </c>
+      <c r="G46">
+        <v>0.04998940171065099</v>
+      </c>
+      <c r="H46">
+        <v>0.1093568225775097</v>
+      </c>
+      <c r="I46">
+        <v>-0.03259247044620926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07781042165871765</v>
+        <v>0.04514929613544606</v>
       </c>
       <c r="C47">
-        <v>-0.1060635672820155</v>
+        <v>0.118153085437933</v>
       </c>
       <c r="D47">
-        <v>-0.05889641986820473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02696230285968135</v>
+      </c>
+      <c r="E47">
+        <v>0.01095840596012023</v>
+      </c>
+      <c r="F47">
+        <v>-0.003624618742496784</v>
+      </c>
+      <c r="G47">
+        <v>-0.0213527751476508</v>
+      </c>
+      <c r="H47">
+        <v>0.03999007550501111</v>
+      </c>
+      <c r="I47">
+        <v>-0.1163442581258068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.004683346469591364</v>
+        <v>0.005454984908952101</v>
       </c>
       <c r="C48">
-        <v>-0.01705106114876088</v>
+        <v>0.0258550713163069</v>
       </c>
       <c r="D48">
-        <v>-0.09308593558650718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08843265119054967</v>
+      </c>
+      <c r="E48">
+        <v>0.01106757847306804</v>
+      </c>
+      <c r="F48">
+        <v>0.03539816958656199</v>
+      </c>
+      <c r="G48">
+        <v>0.03958287675637392</v>
+      </c>
+      <c r="H48">
+        <v>0.07204699681023619</v>
+      </c>
+      <c r="I48">
+        <v>-0.01675811672149198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03657411713171257</v>
+        <v>0.01904556007332932</v>
       </c>
       <c r="C50">
-        <v>-0.06461253776358904</v>
+        <v>0.07302228180027677</v>
       </c>
       <c r="D50">
-        <v>-0.07886063019591223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05701790650239225</v>
+      </c>
+      <c r="E50">
+        <v>-0.002455602584965327</v>
+      </c>
+      <c r="F50">
+        <v>0.007570246079098256</v>
+      </c>
+      <c r="G50">
+        <v>0.03572927041744062</v>
+      </c>
+      <c r="H50">
+        <v>0.02035308324320608</v>
+      </c>
+      <c r="I50">
+        <v>-0.08981478001330642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001090975986501157</v>
+        <v>0.001364461346023192</v>
       </c>
       <c r="C51">
-        <v>-0.01088981398778018</v>
+        <v>0.01835899637398688</v>
       </c>
       <c r="D51">
-        <v>-0.06871340124189698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07380240614835157</v>
+      </c>
+      <c r="E51">
+        <v>-0.02802881504901739</v>
+      </c>
+      <c r="F51">
+        <v>0.03691389332667516</v>
+      </c>
+      <c r="G51">
+        <v>0.05136231466137623</v>
+      </c>
+      <c r="H51">
+        <v>0.04403907144362637</v>
+      </c>
+      <c r="I51">
+        <v>-0.009530915093326689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09619238066892928</v>
+        <v>0.06474639192782067</v>
       </c>
       <c r="C53">
-        <v>-0.1260828524425092</v>
+        <v>0.1493721962792233</v>
       </c>
       <c r="D53">
-        <v>-0.02062287122511273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003259583709254879</v>
+      </c>
+      <c r="E53">
+        <v>0.04598800160061163</v>
+      </c>
+      <c r="F53">
+        <v>0.06532755443651479</v>
+      </c>
+      <c r="G53">
+        <v>0.03359006608561246</v>
+      </c>
+      <c r="H53">
+        <v>0.001892750677735628</v>
+      </c>
+      <c r="I53">
+        <v>-0.09732862063239758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01111408282130277</v>
+        <v>0.008307052987615977</v>
       </c>
       <c r="C54">
-        <v>-0.02345406222185128</v>
+        <v>0.03465453224860159</v>
       </c>
       <c r="D54">
-        <v>-0.1159140886554078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09491693470056521</v>
+      </c>
+      <c r="E54">
+        <v>-0.008855614727523078</v>
+      </c>
+      <c r="F54">
+        <v>0.002511603180231024</v>
+      </c>
+      <c r="G54">
+        <v>0.06064798275203735</v>
+      </c>
+      <c r="H54">
+        <v>0.06656272811636071</v>
+      </c>
+      <c r="I54">
+        <v>-0.0593807957315592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.08809407579231064</v>
+        <v>0.05447594875597908</v>
       </c>
       <c r="C55">
-        <v>-0.1057728579160115</v>
+        <v>0.1245103433670704</v>
       </c>
       <c r="D55">
-        <v>-0.005955870793442702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01317257877992491</v>
+      </c>
+      <c r="E55">
+        <v>0.006473239751464745</v>
+      </c>
+      <c r="F55">
+        <v>0.02996258268879807</v>
+      </c>
+      <c r="G55">
+        <v>0.04154319993470208</v>
+      </c>
+      <c r="H55">
+        <v>-0.01118329879582746</v>
+      </c>
+      <c r="I55">
+        <v>-0.07779406170620169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1207794190271382</v>
+        <v>0.07556351876030515</v>
       </c>
       <c r="C56">
-        <v>-0.1360364808957448</v>
+        <v>0.1727310987912994</v>
       </c>
       <c r="D56">
-        <v>-0.003457631792291644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01390837430312405</v>
+      </c>
+      <c r="E56">
+        <v>0.0376490966044968</v>
+      </c>
+      <c r="F56">
+        <v>0.02789154038141964</v>
+      </c>
+      <c r="G56">
+        <v>0.05159233961969718</v>
+      </c>
+      <c r="H56">
+        <v>-0.02909079576548641</v>
+      </c>
+      <c r="I56">
+        <v>-0.08946935537170086</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02569871741132134</v>
+        <v>-0.009253198389513786</v>
       </c>
       <c r="C58">
-        <v>-0.02156359894288506</v>
+        <v>0.04160709054250044</v>
       </c>
       <c r="D58">
-        <v>-0.2151394755284387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2874232703511578</v>
+      </c>
+      <c r="E58">
+        <v>0.03562381818171459</v>
+      </c>
+      <c r="F58">
+        <v>0.09135151205445212</v>
+      </c>
+      <c r="G58">
+        <v>0.06927232243096802</v>
+      </c>
+      <c r="H58">
+        <v>-0.1528065865209436</v>
+      </c>
+      <c r="I58">
+        <v>0.04946063137876482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1743979349650391</v>
+        <v>0.2304130841250416</v>
       </c>
       <c r="C59">
-        <v>0.146041809893245</v>
+        <v>-0.09491724148462495</v>
       </c>
       <c r="D59">
-        <v>-0.05083332036887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06567969548053687</v>
+      </c>
+      <c r="E59">
+        <v>0.0350585046896361</v>
+      </c>
+      <c r="F59">
+        <v>0.00665823262466544</v>
+      </c>
+      <c r="G59">
+        <v>-0.005013762696082075</v>
+      </c>
+      <c r="H59">
+        <v>-0.01627113876553157</v>
+      </c>
+      <c r="I59">
+        <v>-0.002532115119707431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2027394947556736</v>
+        <v>0.1642143763823439</v>
       </c>
       <c r="C60">
-        <v>-0.1124163080021189</v>
+        <v>0.168396230319391</v>
       </c>
       <c r="D60">
-        <v>-0.1600421060880344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07710248723984454</v>
+      </c>
+      <c r="E60">
+        <v>-0.262857111523722</v>
+      </c>
+      <c r="F60">
+        <v>-0.1592925406773263</v>
+      </c>
+      <c r="G60">
+        <v>-0.2533763023511886</v>
+      </c>
+      <c r="H60">
+        <v>-0.108097924409455</v>
+      </c>
+      <c r="I60">
+        <v>0.0409716704718974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03038488356531908</v>
+        <v>0.01748288061937697</v>
       </c>
       <c r="C61">
-        <v>-0.05920789225809411</v>
+        <v>0.07108157418330358</v>
       </c>
       <c r="D61">
-        <v>-0.1171227457511299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09042430295047454</v>
+      </c>
+      <c r="E61">
+        <v>-0.03456613702379453</v>
+      </c>
+      <c r="F61">
+        <v>-0.01588754529076448</v>
+      </c>
+      <c r="G61">
+        <v>0.007974931211954105</v>
+      </c>
+      <c r="H61">
+        <v>0.09707988389591918</v>
+      </c>
+      <c r="I61">
+        <v>-0.01868878683810122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007986154123441735</v>
+        <v>0.004038499218040598</v>
       </c>
       <c r="C63">
-        <v>-0.02623988339208987</v>
+        <v>0.03548319076957376</v>
       </c>
       <c r="D63">
-        <v>-0.09549558674956536</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0756033297011179</v>
+      </c>
+      <c r="E63">
+        <v>-0.02107971632859541</v>
+      </c>
+      <c r="F63">
+        <v>0.02026253199276614</v>
+      </c>
+      <c r="G63">
+        <v>0.03130050418848672</v>
+      </c>
+      <c r="H63">
+        <v>0.05314031755670702</v>
+      </c>
+      <c r="I63">
+        <v>-0.009249543960873611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05049727705442546</v>
+        <v>0.02624292405800519</v>
       </c>
       <c r="C64">
-        <v>-0.08490301808617419</v>
+        <v>0.09723205861425462</v>
       </c>
       <c r="D64">
-        <v>-0.0641340634127583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05105383495744248</v>
+      </c>
+      <c r="E64">
+        <v>-0.02302313804468149</v>
+      </c>
+      <c r="F64">
+        <v>0.03476446368692136</v>
+      </c>
+      <c r="G64">
+        <v>-0.01765685538621939</v>
+      </c>
+      <c r="H64">
+        <v>0.1229108142643906</v>
+      </c>
+      <c r="I64">
+        <v>-0.007347177698674222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02202442307089667</v>
+        <v>0.0170871663757695</v>
       </c>
       <c r="C65">
-        <v>-0.02087287705487968</v>
+        <v>0.03779031324761839</v>
       </c>
       <c r="D65">
-        <v>-0.1202016500815641</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1073908466911448</v>
+      </c>
+      <c r="E65">
+        <v>-0.04058916173481558</v>
+      </c>
+      <c r="F65">
+        <v>0.009347508516436476</v>
+      </c>
+      <c r="G65">
+        <v>0.01086962798737074</v>
+      </c>
+      <c r="H65">
+        <v>0.01445999867677825</v>
+      </c>
+      <c r="I65">
+        <v>-0.01124124826419853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02291562353513209</v>
+        <v>0.01112085301562177</v>
       </c>
       <c r="C66">
-        <v>-0.06649996642166314</v>
+        <v>0.08639412009393621</v>
       </c>
       <c r="D66">
-        <v>-0.1205320395054314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1309733124332452</v>
+      </c>
+      <c r="E66">
+        <v>-0.03758783400231321</v>
+      </c>
+      <c r="F66">
+        <v>-0.01908043953793564</v>
+      </c>
+      <c r="G66">
+        <v>0.01444765904271618</v>
+      </c>
+      <c r="H66">
+        <v>0.05565926293502074</v>
+      </c>
+      <c r="I66">
+        <v>0.0530938610852947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03053174744202943</v>
+        <v>0.02963567386494332</v>
       </c>
       <c r="C67">
-        <v>-0.02240916113055294</v>
+        <v>0.0299749892487337</v>
       </c>
       <c r="D67">
-        <v>-0.04021610586514016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03364418068234853</v>
+      </c>
+      <c r="E67">
+        <v>-0.002027974649209176</v>
+      </c>
+      <c r="F67">
+        <v>-0.03166376995462474</v>
+      </c>
+      <c r="G67">
+        <v>0.03022021864417371</v>
+      </c>
+      <c r="H67">
+        <v>0.05429726677455839</v>
+      </c>
+      <c r="I67">
+        <v>-0.003620346978607916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2142668162189758</v>
+        <v>0.2613448631435597</v>
       </c>
       <c r="C68">
-        <v>0.1598236010796916</v>
+        <v>-0.09663177199452763</v>
       </c>
       <c r="D68">
-        <v>-0.03404296606293578</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03509630036416828</v>
+      </c>
+      <c r="E68">
+        <v>0.002250586097010013</v>
+      </c>
+      <c r="F68">
+        <v>0.02643007270614516</v>
+      </c>
+      <c r="G68">
+        <v>0.04572280547903128</v>
+      </c>
+      <c r="H68">
+        <v>-0.04763387568983351</v>
+      </c>
+      <c r="I68">
+        <v>-0.06843467798022913</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06317345264911862</v>
+        <v>0.03490050888757291</v>
       </c>
       <c r="C69">
-        <v>-0.1116292872341593</v>
+        <v>0.1170026167256971</v>
       </c>
       <c r="D69">
-        <v>-0.08169195861376195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0421671380089134</v>
+      </c>
+      <c r="E69">
+        <v>-0.005643521365983868</v>
+      </c>
+      <c r="F69">
+        <v>-0.008480463965673776</v>
+      </c>
+      <c r="G69">
+        <v>-0.01098121132468591</v>
+      </c>
+      <c r="H69">
+        <v>0.03979872582527284</v>
+      </c>
+      <c r="I69">
+        <v>-0.07401191499829568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2116358960478155</v>
+        <v>0.2583531213152337</v>
       </c>
       <c r="C71">
-        <v>0.1732478487395978</v>
+        <v>-0.1107478526991248</v>
       </c>
       <c r="D71">
-        <v>-0.04480526954968077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03693421522938636</v>
+      </c>
+      <c r="E71">
+        <v>0.009493484679732222</v>
+      </c>
+      <c r="F71">
+        <v>0.02833104582568634</v>
+      </c>
+      <c r="G71">
+        <v>0.05458750076598176</v>
+      </c>
+      <c r="H71">
+        <v>-0.0075998475601313</v>
+      </c>
+      <c r="I71">
+        <v>-0.1605550173298196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1033401328040506</v>
+        <v>0.06858236148453564</v>
       </c>
       <c r="C72">
-        <v>-0.07799664974183765</v>
+        <v>0.1184599686811274</v>
       </c>
       <c r="D72">
-        <v>-0.09503856136263757</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07003763952957559</v>
+      </c>
+      <c r="E72">
+        <v>-0.09069235722223654</v>
+      </c>
+      <c r="F72">
+        <v>-0.005491893582488332</v>
+      </c>
+      <c r="G72">
+        <v>0.01061962025422815</v>
+      </c>
+      <c r="H72">
+        <v>0.05737105151776562</v>
+      </c>
+      <c r="I72">
+        <v>0.009687325826298171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1851755444444661</v>
+        <v>0.1476535589327872</v>
       </c>
       <c r="C73">
-        <v>-0.06121421416150039</v>
+        <v>0.1275135830246134</v>
       </c>
       <c r="D73">
-        <v>-0.2052058910342915</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06360570496054728</v>
+      </c>
+      <c r="E73">
+        <v>-0.4479471258973958</v>
+      </c>
+      <c r="F73">
+        <v>-0.2340003383110182</v>
+      </c>
+      <c r="G73">
+        <v>-0.42181372851166</v>
+      </c>
+      <c r="H73">
+        <v>-0.01282063437441865</v>
+      </c>
+      <c r="I73">
+        <v>0.04424164586959159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09759935274122772</v>
+        <v>0.06130965313942657</v>
       </c>
       <c r="C74">
-        <v>-0.1112567767201725</v>
+        <v>0.1332138094023293</v>
       </c>
       <c r="D74">
-        <v>0.0167147069075666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02904519634156091</v>
+      </c>
+      <c r="E74">
+        <v>0.02330605053764387</v>
+      </c>
+      <c r="F74">
+        <v>0.05725221323397574</v>
+      </c>
+      <c r="G74">
+        <v>0.003432545496891137</v>
+      </c>
+      <c r="H74">
+        <v>-0.01882537820860246</v>
+      </c>
+      <c r="I74">
+        <v>-0.09439274908987332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2417963351107325</v>
+        <v>0.1607855159385253</v>
       </c>
       <c r="C75">
-        <v>-0.1974661599056432</v>
+        <v>0.2555912656760491</v>
       </c>
       <c r="D75">
-        <v>0.1011058112965611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1252547501798755</v>
+      </c>
+      <c r="E75">
+        <v>0.08137127299186368</v>
+      </c>
+      <c r="F75">
+        <v>-0.03357515718274437</v>
+      </c>
+      <c r="G75">
+        <v>0.05003131516931134</v>
+      </c>
+      <c r="H75">
+        <v>-0.02239304083481466</v>
+      </c>
+      <c r="I75">
+        <v>-0.08176841619190228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.135528681424749</v>
+        <v>0.08476562995888776</v>
       </c>
       <c r="C76">
-        <v>-0.1429279107279261</v>
+        <v>0.1746189930481917</v>
       </c>
       <c r="D76">
-        <v>-0.01680548840656031</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01435841397871906</v>
+      </c>
+      <c r="E76">
+        <v>0.0387388075395037</v>
+      </c>
+      <c r="F76">
+        <v>0.01392579783372378</v>
+      </c>
+      <c r="G76">
+        <v>0.05601941160108665</v>
+      </c>
+      <c r="H76">
+        <v>0.01029106774111039</v>
+      </c>
+      <c r="I76">
+        <v>-0.09898990607034158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02410325951042925</v>
+        <v>0.03364809744863188</v>
       </c>
       <c r="C77">
-        <v>-0.08225780291916178</v>
+        <v>0.09564654066696075</v>
       </c>
       <c r="D77">
-        <v>-0.05381818400815653</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2456619950173132</v>
+      </c>
+      <c r="E77">
+        <v>0.6926274899417818</v>
+      </c>
+      <c r="F77">
+        <v>-0.4022629175881766</v>
+      </c>
+      <c r="G77">
+        <v>-0.355110675135328</v>
+      </c>
+      <c r="H77">
+        <v>-0.2035225967848644</v>
+      </c>
+      <c r="I77">
+        <v>-0.1129912883631015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02070049968280977</v>
+        <v>0.01829671804377578</v>
       </c>
       <c r="C78">
-        <v>-0.07307346738667395</v>
+        <v>0.08316539000747583</v>
       </c>
       <c r="D78">
-        <v>-0.160782608142466</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1444538299475609</v>
+      </c>
+      <c r="E78">
+        <v>-0.04809451230729803</v>
+      </c>
+      <c r="F78">
+        <v>0.03653511549821569</v>
+      </c>
+      <c r="G78">
+        <v>0.01118351645805612</v>
+      </c>
+      <c r="H78">
+        <v>0.0200348683547749</v>
+      </c>
+      <c r="I78">
+        <v>0.03562913272147415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.0678113319068549</v>
+        <v>0.0417747880337094</v>
       </c>
       <c r="C79">
-        <v>-0.1445404074347195</v>
+        <v>0.1641051551266959</v>
       </c>
       <c r="D79">
-        <v>0.08949605796293342</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03936739382758331</v>
+      </c>
+      <c r="E79">
+        <v>0.1557288569867855</v>
+      </c>
+      <c r="F79">
+        <v>0.7773336079778371</v>
+      </c>
+      <c r="G79">
+        <v>-0.4774118193831095</v>
+      </c>
+      <c r="H79">
+        <v>-0.05800280043576344</v>
+      </c>
+      <c r="I79">
+        <v>0.1427498286253098</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.00893781733490101</v>
+        <v>0.003591530262085597</v>
       </c>
       <c r="C80">
-        <v>-0.05287598122595643</v>
+        <v>0.05297430242456196</v>
       </c>
       <c r="D80">
-        <v>-0.0507587941679273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0436379490606822</v>
+      </c>
+      <c r="E80">
+        <v>-0.01850625816944481</v>
+      </c>
+      <c r="F80">
+        <v>0.01573777981165723</v>
+      </c>
+      <c r="G80">
+        <v>0.06243519621164138</v>
+      </c>
+      <c r="H80">
+        <v>0.007114707271059936</v>
+      </c>
+      <c r="I80">
+        <v>-0.0326585353584056</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.120652865729728</v>
+        <v>0.07067510097192889</v>
       </c>
       <c r="C81">
-        <v>-0.140976264258077</v>
+        <v>0.164691943397457</v>
       </c>
       <c r="D81">
-        <v>0.06726196971296637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07369219303374548</v>
+      </c>
+      <c r="E81">
+        <v>0.07644892749815312</v>
+      </c>
+      <c r="F81">
+        <v>0.04987701665500117</v>
+      </c>
+      <c r="G81">
+        <v>0.07388035475881793</v>
+      </c>
+      <c r="H81">
+        <v>0.0414919592074962</v>
+      </c>
+      <c r="I81">
+        <v>-0.1200138010936779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2321977894832611</v>
+        <v>0.1298325699356042</v>
       </c>
       <c r="C82">
-        <v>-0.3027709111305908</v>
+        <v>0.3189781177190945</v>
       </c>
       <c r="D82">
-        <v>0.215105323618283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2171984369639499</v>
+      </c>
+      <c r="E82">
+        <v>0.04853643199778785</v>
+      </c>
+      <c r="F82">
+        <v>-0.09172331238900738</v>
+      </c>
+      <c r="G82">
+        <v>0.09997158697212173</v>
+      </c>
+      <c r="H82">
+        <v>0.05991023467938486</v>
+      </c>
+      <c r="I82">
+        <v>-0.0982893877071426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.00687734683855611</v>
+        <v>-0.004127589893457507</v>
       </c>
       <c r="C83">
-        <v>-0.06238658881433524</v>
+        <v>0.05208402190218122</v>
       </c>
       <c r="D83">
-        <v>-0.02411284238196622</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04657638614993072</v>
+      </c>
+      <c r="E83">
+        <v>0.09382151124331592</v>
+      </c>
+      <c r="F83">
+        <v>-0.0254648330830707</v>
+      </c>
+      <c r="G83">
+        <v>0.03324134188005491</v>
+      </c>
+      <c r="H83">
+        <v>0.05346945686647535</v>
+      </c>
+      <c r="I83">
+        <v>0.147181206538399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.002128039808674258</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01354655086649058</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03349905711493442</v>
+      </c>
+      <c r="E84">
+        <v>0.006529269633856904</v>
+      </c>
+      <c r="F84">
+        <v>0.01817725550319325</v>
+      </c>
+      <c r="G84">
+        <v>0.03593877846944361</v>
+      </c>
+      <c r="H84">
+        <v>-0.00891017731822792</v>
+      </c>
+      <c r="I84">
+        <v>0.0258813694075351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1517137365543501</v>
+        <v>0.09254580540577066</v>
       </c>
       <c r="C85">
-        <v>-0.1463636447086992</v>
+        <v>0.1884889805617782</v>
       </c>
       <c r="D85">
-        <v>0.04987375297395463</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08843144801651759</v>
+      </c>
+      <c r="E85">
+        <v>-0.0001476260963383474</v>
+      </c>
+      <c r="F85">
+        <v>0.07109125637336265</v>
+      </c>
+      <c r="G85">
+        <v>0.01019055857070452</v>
+      </c>
+      <c r="H85">
+        <v>-0.008600813830756586</v>
+      </c>
+      <c r="I85">
+        <v>-0.07437985796374527</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01023281820189966</v>
+        <v>0.01021724157866336</v>
       </c>
       <c r="C86">
-        <v>-0.02688966765214115</v>
+        <v>0.03013973804408027</v>
       </c>
       <c r="D86">
-        <v>-0.08986434758237009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1052318521943832</v>
+      </c>
+      <c r="E86">
+        <v>0.04398551446472486</v>
+      </c>
+      <c r="F86">
+        <v>-0.01765518832835946</v>
+      </c>
+      <c r="G86">
+        <v>0.017721489571389</v>
+      </c>
+      <c r="H86">
+        <v>0.005810042195744436</v>
+      </c>
+      <c r="I86">
+        <v>-0.1046837366044564</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01792531997670794</v>
+        <v>0.01983138010730271</v>
       </c>
       <c r="C87">
-        <v>-0.02541486358354792</v>
+        <v>0.04638977217866404</v>
       </c>
       <c r="D87">
-        <v>-0.1261803479798773</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1506889582839436</v>
+      </c>
+      <c r="E87">
+        <v>0.01518928644071631</v>
+      </c>
+      <c r="F87">
+        <v>0.0355240059716501</v>
+      </c>
+      <c r="G87">
+        <v>0.05957537425431519</v>
+      </c>
+      <c r="H87">
+        <v>0.01632735327738698</v>
+      </c>
+      <c r="I87">
+        <v>0.08905298218093954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05843581730024663</v>
+        <v>0.04002226880083164</v>
       </c>
       <c r="C88">
-        <v>-0.04543125633628838</v>
+        <v>0.06269537312752681</v>
       </c>
       <c r="D88">
-        <v>-0.0437508206529301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01239483109248876</v>
+      </c>
+      <c r="E88">
+        <v>-0.02051141381780222</v>
+      </c>
+      <c r="F88">
+        <v>0.02437946923514383</v>
+      </c>
+      <c r="G88">
+        <v>-0.00918880604803015</v>
+      </c>
+      <c r="H88">
+        <v>0.02338249818059814</v>
+      </c>
+      <c r="I88">
+        <v>-0.03849388763383056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3293733627126023</v>
+        <v>0.3972134039586497</v>
       </c>
       <c r="C89">
-        <v>0.3268272278290807</v>
+        <v>-0.2099516841791654</v>
       </c>
       <c r="D89">
-        <v>-0.006206478961524428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01946261246551799</v>
+      </c>
+      <c r="E89">
+        <v>0.05304788776215928</v>
+      </c>
+      <c r="F89">
+        <v>0.04791591147689344</v>
+      </c>
+      <c r="G89">
+        <v>0.09196298056620121</v>
+      </c>
+      <c r="H89">
+        <v>0.1525941434474993</v>
+      </c>
+      <c r="I89">
+        <v>0.4107468655172344</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2597891277876651</v>
+        <v>0.3064993257047819</v>
       </c>
       <c r="C90">
-        <v>0.2341219371718999</v>
+        <v>-0.1412040370922144</v>
       </c>
       <c r="D90">
-        <v>-0.03711281291472337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03995758783433596</v>
+      </c>
+      <c r="E90">
+        <v>0.007375676449955103</v>
+      </c>
+      <c r="F90">
+        <v>-0.01530195162394425</v>
+      </c>
+      <c r="G90">
+        <v>0.05007373222372542</v>
+      </c>
+      <c r="H90">
+        <v>-0.03711580730427615</v>
+      </c>
+      <c r="I90">
+        <v>-0.06392172295304589</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1528719147669416</v>
+        <v>0.09286343129473308</v>
       </c>
       <c r="C91">
-        <v>-0.1886900236999621</v>
+        <v>0.2077703089874805</v>
       </c>
       <c r="D91">
-        <v>0.1043587002392745</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1061787509021276</v>
+      </c>
+      <c r="E91">
+        <v>0.07968538248403795</v>
+      </c>
+      <c r="F91">
+        <v>0.07483540630752664</v>
+      </c>
+      <c r="G91">
+        <v>0.01350744684619537</v>
+      </c>
+      <c r="H91">
+        <v>-0.01146732757506601</v>
+      </c>
+      <c r="I91">
+        <v>-0.110201614799572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2318420552554431</v>
+        <v>0.3105492978712284</v>
       </c>
       <c r="C92">
-        <v>0.2499788793133889</v>
+        <v>-0.1807663511888937</v>
       </c>
       <c r="D92">
-        <v>0.02498250927337359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01195626183711382</v>
+      </c>
+      <c r="E92">
+        <v>0.08406948431495938</v>
+      </c>
+      <c r="F92">
+        <v>0.03188835485100834</v>
+      </c>
+      <c r="G92">
+        <v>0.03645280986116095</v>
+      </c>
+      <c r="H92">
+        <v>0.007255467766588745</v>
+      </c>
+      <c r="I92">
+        <v>0.01173337071536476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2887066186640166</v>
+        <v>0.3287496456286333</v>
       </c>
       <c r="C93">
-        <v>0.2473538959608995</v>
+        <v>-0.1488721732344658</v>
       </c>
       <c r="D93">
-        <v>-0.02497096721847113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004363574840445947</v>
+      </c>
+      <c r="E93">
+        <v>-0.03543746395237735</v>
+      </c>
+      <c r="F93">
+        <v>0.01639282779509321</v>
+      </c>
+      <c r="G93">
+        <v>-0.03081770801331994</v>
+      </c>
+      <c r="H93">
+        <v>-0.01467093337107057</v>
+      </c>
+      <c r="I93">
+        <v>-0.1311870558837474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2970591836385765</v>
+        <v>0.1877688101075443</v>
       </c>
       <c r="C94">
-        <v>-0.278474333614858</v>
+        <v>0.3467241231871831</v>
       </c>
       <c r="D94">
-        <v>0.3641391252761486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3567103484477951</v>
+      </c>
+      <c r="E94">
+        <v>0.05548092241123619</v>
+      </c>
+      <c r="F94">
+        <v>-0.09504337046890643</v>
+      </c>
+      <c r="G94">
+        <v>0.2796465181920414</v>
+      </c>
+      <c r="H94">
+        <v>-0.1414883394594723</v>
+      </c>
+      <c r="I94">
+        <v>0.4188709243133199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02852408496904868</v>
+        <v>0.02571283572738894</v>
       </c>
       <c r="C95">
-        <v>-0.0421914567935169</v>
+        <v>0.06315589944579025</v>
       </c>
       <c r="D95">
-        <v>-0.08613024986995178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1162530985448415</v>
+      </c>
+      <c r="E95">
+        <v>0.2082949728798081</v>
+      </c>
+      <c r="F95">
+        <v>-0.1554852888907151</v>
+      </c>
+      <c r="G95">
+        <v>-0.1268742053976684</v>
+      </c>
+      <c r="H95">
+        <v>0.4634246112609258</v>
+      </c>
+      <c r="I95">
+        <v>0.4685336521406765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0002035658381854892</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001730914781144561</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002453441831544765</v>
+      </c>
+      <c r="E97">
+        <v>-0.0003157808245984795</v>
+      </c>
+      <c r="F97">
+        <v>-0.00140999583920872</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009094112419325336</v>
+      </c>
+      <c r="H97">
+        <v>0.001500169225191753</v>
+      </c>
+      <c r="I97">
+        <v>0.0001097238829793328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1514623435342572</v>
+        <v>0.1275145163412867</v>
       </c>
       <c r="C98">
-        <v>-0.07648842588405529</v>
+        <v>0.1277152359318025</v>
       </c>
       <c r="D98">
-        <v>-0.1316831574190755</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06151224424497637</v>
+      </c>
+      <c r="E98">
+        <v>-0.2894009594355992</v>
+      </c>
+      <c r="F98">
+        <v>-0.1433549022981294</v>
+      </c>
+      <c r="G98">
+        <v>-0.2443752592883885</v>
+      </c>
+      <c r="H98">
+        <v>-0.05555495519737351</v>
+      </c>
+      <c r="I98">
+        <v>-0.0007464683229409364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002723599750390993</v>
+        <v>0.0002025457705459564</v>
       </c>
       <c r="C101">
-        <v>-0.02076617625289099</v>
+        <v>0.02697518180272518</v>
       </c>
       <c r="D101">
-        <v>-0.1005909561135766</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1018733384206292</v>
+      </c>
+      <c r="E101">
+        <v>-0.03213703211790272</v>
+      </c>
+      <c r="F101">
+        <v>0.02951699956474134</v>
+      </c>
+      <c r="G101">
+        <v>0.05137399167531527</v>
+      </c>
+      <c r="H101">
+        <v>0.0979961563971352</v>
+      </c>
+      <c r="I101">
+        <v>-0.01760153966493126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.107405974806284</v>
+        <v>0.05648726837795052</v>
       </c>
       <c r="C102">
-        <v>-0.1516304831817285</v>
+        <v>0.1510188270222167</v>
       </c>
       <c r="D102">
-        <v>0.07211517177054809</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08740544265722303</v>
+      </c>
+      <c r="E102">
+        <v>0.03180836948606697</v>
+      </c>
+      <c r="F102">
+        <v>-0.06037814540066466</v>
+      </c>
+      <c r="G102">
+        <v>0.003799055707543431</v>
+      </c>
+      <c r="H102">
+        <v>0.05501544915132763</v>
+      </c>
+      <c r="I102">
+        <v>-0.03318192646294337</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
